--- a/target/test-classes/Utilities/Input (1).xlsx
+++ b/target/test-classes/Utilities/Input (1).xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="38">
   <si>
     <t>search input</t>
   </si>
@@ -618,42 +618,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
